--- a/src/test/java/data/UserData.xlsx
+++ b/src/test/java/data/UserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="2145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10440" windowHeight="2520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>tunis</t>
   </si>
@@ -23,28 +23,16 @@
     <t>April</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>Cyberesa123</t>
-  </si>
-  <si>
     <t>123Cyberesa123</t>
   </si>
   <si>
     <t>safa</t>
   </si>
   <si>
-    <t>aass5555@gmail.com</t>
-  </si>
-  <si>
-    <t>aa7s54445@gmail.com</t>
-  </si>
-  <si>
-    <t>a55as775@gmail.com</t>
+    <t>safajj</t>
+  </si>
+  <si>
+    <t>aa7s55@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -401,7 +389,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,99 +398,41 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1" s="2">
-        <v>2000</v>
+        <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2022</v>
-      </c>
-    </row>
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2:C3" r:id="rId2" display="aass55@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="C1" r:id="rId2" display="aa7s54445@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/data/UserData.xlsx
+++ b/src/test/java/data/UserData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>tunis</t>
   </si>
@@ -29,10 +29,22 @@
     <t>safa</t>
   </si>
   <si>
-    <t>safajj</t>
-  </si>
-  <si>
-    <t>aa7s55@gmail.com</t>
+    <t>hghj</t>
+  </si>
+  <si>
+    <t>kjkjkjj</t>
+  </si>
+  <si>
+    <t>aadd5@gmail.com</t>
+  </si>
+  <si>
+    <t>aaff@gmail.com</t>
+  </si>
+  <si>
+    <t>hjhkjhkj</t>
+  </si>
+  <si>
+    <t>aajjjjff@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -389,7 +401,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,10 +415,10 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -427,12 +439,70 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
     <hyperlink ref="C1" r:id="rId2" display="aa7s54445@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
